--- a/results_final/sigma_MH.xlsx
+++ b/results_final/sigma_MH.xlsx
@@ -519,91 +519,91 @@
         <v>0.3905760977195454</v>
       </c>
       <c r="D2">
-        <v>0.3207536966709983</v>
+        <v>0.3207733656856278</v>
       </c>
       <c r="E2">
-        <v>0.2738036476913094</v>
+        <v>0.2738532818468939</v>
       </c>
       <c r="F2">
-        <v>0.2410750709673156</v>
+        <v>0.2411612024436535</v>
       </c>
       <c r="G2">
-        <v>0.2175835218294657</v>
+        <v>0.2177112100792116</v>
       </c>
       <c r="H2">
-        <v>0.2003144852892846</v>
+        <v>0.2004882745820521</v>
       </c>
       <c r="I2">
-        <v>0.1873669249050054</v>
+        <v>0.1875912373930752</v>
       </c>
       <c r="J2">
-        <v>0.1774977769478333</v>
+        <v>0.1777770576090808</v>
       </c>
       <c r="K2">
-        <v>0.1698683318782228</v>
+        <v>0.1702070823425792</v>
       </c>
       <c r="L2">
-        <v>0.1638971737109827</v>
+        <v>0.1642999370442085</v>
       </c>
       <c r="M2">
-        <v>0.1591717568776632</v>
+        <v>0.1596430825311631</v>
       </c>
       <c r="N2">
-        <v>0.1553934736991472</v>
+        <v>0.1559378767428575</v>
       </c>
       <c r="O2">
-        <v>0.1523425007641743</v>
+        <v>0.1529644222712882</v>
       </c>
       <c r="P2">
-        <v>0.1498546864595368</v>
+        <v>0.1505584582748035</v>
       </c>
       <c r="Q2">
-        <v>0.1478059756947523</v>
+        <v>0.1485957909191455</v>
       </c>
       <c r="R2">
-        <v>0.1461016752625207</v>
+        <v>0.1469815647665163</v>
       </c>
       <c r="S2">
-        <v>0.1446689030771108</v>
+        <v>0.1456427178024052</v>
       </c>
       <c r="T2">
-        <v>0.1434511786655667</v>
+        <v>0.1445225771858512</v>
       </c>
       <c r="U2">
-        <v>0.142404483854759</v>
+        <v>0.1435769245318295</v>
       </c>
       <c r="V2">
-        <v>0.141494352479323</v>
+        <v>0.1427710895102497</v>
       </c>
       <c r="W2">
-        <v>0.1406936931636925</v>
+        <v>0.1420777758311692</v>
       </c>
       <c r="X2">
-        <v>0.1399811428160827</v>
+        <v>0.1414754173039396</v>
       </c>
       <c r="Y2">
-        <v>0.1393398099337431</v>
+        <v>0.1409469231373916</v>
       </c>
       <c r="Z2">
-        <v>0.1387563079292917</v>
+        <v>0.140478712766175</v>
       </c>
       <c r="AA2">
-        <v>0.1382200066771178</v>
+        <v>0.1400599684781711</v>
       </c>
       <c r="AB2">
-        <v>0.137722449862814</v>
+        <v>0.1396820534981049</v>
       </c>
       <c r="AC2">
-        <v>0.1372568993643545</v>
+        <v>0.1393380568218835</v>
       </c>
       <c r="AD2">
-        <v>0.1368179776499623</v>
+        <v>0.1390224358447606</v>
       </c>
       <c r="AE2">
-        <v>0.1364013862547241</v>
+        <v>0.1387307348954608</v>
       </c>
       <c r="AF2">
-        <v>0.1360036836006122</v>
+        <v>0.1384593629831067</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -611,97 +611,97 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3342371379733692</v>
+        <v>0.3342371379733693</v>
       </c>
       <c r="C3">
-        <v>0.2600884103700621</v>
+        <v>0.260088410370062</v>
       </c>
       <c r="D3">
-        <v>0.2119004937320846</v>
+        <v>0.2119778222680584</v>
       </c>
       <c r="E3">
-        <v>0.1791119092870792</v>
+        <v>0.1793051914168923</v>
       </c>
       <c r="F3">
-        <v>0.1559292561793383</v>
+        <v>0.1562610377241716</v>
       </c>
       <c r="G3">
-        <v>0.1389966528470185</v>
+        <v>0.1394827141960644</v>
       </c>
       <c r="H3">
-        <v>0.1262771207866872</v>
+        <v>0.1269304001628515</v>
       </c>
       <c r="I3">
-        <v>0.1164834566584693</v>
+        <v>0.1173156854604262</v>
       </c>
       <c r="J3">
-        <v>0.1087735398685542</v>
+        <v>0.1097958759826005</v>
       </c>
       <c r="K3">
-        <v>0.1025797221656773</v>
+        <v>0.1038029402775686</v>
       </c>
       <c r="L3">
-        <v>0.09750941146613876</v>
+        <v>0.09894390304516339</v>
       </c>
       <c r="M3">
-        <v>0.09328503924007231</v>
+        <v>0.09494073958290429</v>
       </c>
       <c r="N3">
-        <v>0.08970662856120859</v>
+        <v>0.0915929259685767</v>
       </c>
       <c r="O3">
-        <v>0.08662776851853878</v>
+        <v>0.08875342087475847</v>
       </c>
       <c r="P3">
-        <v>0.08393978428524822</v>
+        <v>0.08631285361071538</v>
       </c>
       <c r="Q3">
-        <v>0.08156105754612238</v>
+        <v>0.08418886570516651</v>
       </c>
       <c r="R3">
-        <v>0.07942966675229257</v>
+        <v>0.08231877179949267</v>
       </c>
       <c r="S3">
-        <v>0.07749821795450609</v>
+        <v>0.08065440883644989</v>
       </c>
       <c r="T3">
-        <v>0.07573015258271927</v>
+        <v>0.079158459190651</v>
       </c>
       <c r="U3">
-        <v>0.07409707090493341</v>
+        <v>0.07780178632496493</v>
       </c>
       <c r="V3">
-        <v>0.0725767666446816</v>
+        <v>0.07656147861348254</v>
       </c>
       <c r="W3">
-        <v>0.07115176769126924</v>
+        <v>0.07541939658394105</v>
       </c>
       <c r="X3">
-        <v>0.06980824222943892</v>
+        <v>0.07436108329174786</v>
       </c>
       <c r="Y3">
-        <v>0.0685351721174392</v>
+        <v>0.07337494005229686</v>
       </c>
       <c r="Z3">
-        <v>0.06732372391582712</v>
+        <v>0.07245159831203751</v>
       </c>
       <c r="AA3">
-        <v>0.06616676751620996</v>
+        <v>0.07158343794872174</v>
       </c>
       <c r="AB3">
-        <v>0.06505850591240117</v>
+        <v>0.07076421583967775</v>
       </c>
       <c r="AC3">
-        <v>0.06399418925532602</v>
+        <v>0.06998877808906298</v>
       </c>
       <c r="AD3">
-        <v>0.06296989320748536</v>
+        <v>0.06925283613457126</v>
       </c>
       <c r="AE3">
-        <v>0.06198234659961228</v>
+        <v>0.06855279189988328</v>
       </c>
       <c r="AF3">
-        <v>0.06102879705145382</v>
+        <v>0.06788560078242137</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.3152491828189724</v>
       </c>
       <c r="D4">
-        <v>0.2930740309790451</v>
+        <v>0.2931650379816476</v>
       </c>
       <c r="E4">
-        <v>0.2754802561222889</v>
+        <v>0.2757332000549629</v>
       </c>
       <c r="F4">
-        <v>0.2612504661028853</v>
+        <v>0.2617234151304347</v>
       </c>
       <c r="G4">
-        <v>0.2495328742370106</v>
+        <v>0.2502752143530318</v>
       </c>
       <c r="H4">
-        <v>0.2397191778917043</v>
+        <v>0.2407740780869508</v>
       </c>
       <c r="I4">
-        <v>0.2313673030756115</v>
+        <v>0.2327731928119562</v>
       </c>
       <c r="J4">
-        <v>0.2241511624227636</v>
+        <v>0.2259426329791405</v>
       </c>
       <c r="K4">
-        <v>0.2178271536971244</v>
+        <v>0.2200355219009868</v>
       </c>
       <c r="L4">
-        <v>0.2122113111543056</v>
+        <v>0.214864985980502</v>
       </c>
       <c r="M4">
-        <v>0.2071634035347685</v>
+        <v>0.2102881390267319</v>
       </c>
       <c r="N4">
-        <v>0.2025756651980276</v>
+        <v>0.2061947492836056</v>
       </c>
       <c r="O4">
-        <v>0.1983646822109857</v>
+        <v>0.2024990905516882</v>
       </c>
       <c r="P4">
-        <v>0.1944654680404428</v>
+        <v>0.1991339996339866</v>
       </c>
       <c r="Q4">
-        <v>0.1908270853363129</v>
+        <v>0.1960464890481142</v>
       </c>
       <c r="R4">
-        <v>0.1874093764942784</v>
+        <v>0.1931944731580774</v>
       </c>
       <c r="S4">
-        <v>0.1841805004329936</v>
+        <v>0.1905443024975579</v>
       </c>
       <c r="T4">
-        <v>0.1811150627463418</v>
+        <v>0.1880688919477356</v>
       </c>
       <c r="U4">
-        <v>0.1781926872194821</v>
+        <v>0.1857462899810025</v>
       </c>
       <c r="V4">
-        <v>0.1753969186426762</v>
+        <v>0.1835585785635769</v>
       </c>
       <c r="W4">
-        <v>0.1727143762472244</v>
+        <v>0.1814910229558567</v>
       </c>
       <c r="X4">
-        <v>0.1701340979894306</v>
+        <v>0.1795314116917034</v>
       </c>
       <c r="Y4">
-        <v>0.1676470309771147</v>
+        <v>0.1776695421554761</v>
       </c>
       <c r="Z4">
-        <v>0.1652456343313723</v>
+        <v>0.1758968181991596</v>
       </c>
       <c r="AA4">
-        <v>0.1629235688923702</v>
+        <v>0.1742059343578763</v>
       </c>
       <c r="AB4">
-        <v>0.1606754542255261</v>
+        <v>0.1725906272557227</v>
       </c>
       <c r="AC4">
-        <v>0.1584966779288243</v>
+        <v>0.17104547931796</v>
       </c>
       <c r="AD4">
-        <v>0.1563832456817625</v>
+        <v>0.1695657633231285</v>
       </c>
       <c r="AE4">
-        <v>0.1543316630962361</v>
+        <v>0.1681473189269818</v>
       </c>
       <c r="AF4">
-        <v>0.1523388424354924</v>
+        <v>0.1667864542765949</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.4783134654375992</v>
       </c>
       <c r="D5">
-        <v>0.294771586565285</v>
+        <v>0.2947975418203528</v>
       </c>
       <c r="E5">
-        <v>0.1999243648787767</v>
+        <v>0.1999764060707902</v>
       </c>
       <c r="F5">
-        <v>0.1463988424349092</v>
+        <v>0.1464739535120523</v>
       </c>
       <c r="G5">
-        <v>0.1139853560890606</v>
+        <v>0.1140814182771629</v>
       </c>
       <c r="H5">
-        <v>0.09321333429282135</v>
+        <v>0.0933294774820079</v>
       </c>
       <c r="I5">
-        <v>0.07928060589718755</v>
+        <v>0.07941692719321201</v>
       </c>
       <c r="J5">
-        <v>0.06958403763784983</v>
+        <v>0.06974130165950575</v>
       </c>
       <c r="K5">
-        <v>0.06262979732995383</v>
+        <v>0.06280921287733374</v>
       </c>
       <c r="L5">
-        <v>0.05751763216233859</v>
+        <v>0.05772069705195478</v>
       </c>
       <c r="M5">
-        <v>0.05368159864575584</v>
+        <v>0.05390999201327716</v>
       </c>
       <c r="N5">
-        <v>0.05075267334302468</v>
+        <v>0.05100817922417076</v>
       </c>
       <c r="O5">
-        <v>0.0484825041537217</v>
+        <v>0.0487669557850166</v>
       </c>
       <c r="P5">
-        <v>0.04669932496775313</v>
+        <v>0.0470145632827219</v>
       </c>
       <c r="Q5">
-        <v>0.04528151709143285</v>
+        <v>0.04562935940545697</v>
       </c>
       <c r="R5">
-        <v>0.04414122290815103</v>
+        <v>0.04452343927180668</v>
       </c>
       <c r="S5">
-        <v>0.04321388207587526</v>
+        <v>0.04363217763229635</v>
       </c>
       <c r="T5">
-        <v>0.04245136553651392</v>
+        <v>0.04290736770744338</v>
       </c>
       <c r="U5">
-        <v>0.04181735717351318</v>
+        <v>0.04231260678243322</v>
       </c>
       <c r="V5">
-        <v>0.04128417638355376</v>
+        <v>0.04182012199684548</v>
       </c>
       <c r="W5">
-        <v>0.04083054680857831</v>
+        <v>0.04140854169022661</v>
       </c>
       <c r="X5">
-        <v>0.04044000038764077</v>
+        <v>0.04106130154835826</v>
       </c>
       <c r="Y5">
-        <v>0.04009971696928729</v>
+        <v>0.04076548586176199</v>
       </c>
       <c r="Z5">
-        <v>0.03979966834165679</v>
+        <v>0.04051097281673462</v>
       </c>
       <c r="AA5">
-        <v>0.03953197882448607</v>
+        <v>0.04028979602111275</v>
       </c>
       <c r="AB5">
-        <v>0.03929044242508124</v>
+        <v>0.04009566232036462</v>
       </c>
       <c r="AC5">
-        <v>0.03907015483407287</v>
+        <v>0.03992358422869001</v>
       </c>
       <c r="AD5">
-        <v>0.03886723074617151</v>
+        <v>0.03976959750415687</v>
       </c>
       <c r="AE5">
-        <v>0.03867858529488261</v>
+        <v>0.0396305426953318</v>
       </c>
       <c r="AF5">
-        <v>0.03850176413506338</v>
+        <v>0.03950389522641806</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -908,94 +908,94 @@
         <v>0.7939057911269857</v>
       </c>
       <c r="C6">
-        <v>0.4617406340821548</v>
+        <v>0.4617406340821547</v>
       </c>
       <c r="D6">
-        <v>0.2985244242834306</v>
+        <v>0.2985907466525969</v>
       </c>
       <c r="E6">
-        <v>0.2100581154060937</v>
+        <v>0.2101960961291665</v>
       </c>
       <c r="F6">
-        <v>0.1581746194645879</v>
+        <v>0.1583794450293214</v>
       </c>
       <c r="G6">
-        <v>0.1257475659187532</v>
+        <v>0.1260151085668092</v>
       </c>
       <c r="H6">
-        <v>0.104407041943894</v>
+        <v>0.1047355672361643</v>
       </c>
       <c r="I6">
-        <v>0.08975709094326102</v>
+        <v>0.09014698383595618</v>
       </c>
       <c r="J6">
-        <v>0.07934314230364704</v>
+        <v>0.07979633988165453</v>
       </c>
       <c r="K6">
-        <v>0.07172090687809879</v>
+        <v>0.07224040384965821</v>
       </c>
       <c r="L6">
-        <v>0.0660013734347923</v>
+        <v>0.06659084774320854</v>
       </c>
       <c r="M6">
-        <v>0.06161562522273293</v>
+        <v>0.06227916362175002</v>
       </c>
       <c r="N6">
-        <v>0.058187155302271</v>
+        <v>0.05892905232710768</v>
       </c>
       <c r="O6">
-        <v>0.05545947211074967</v>
+        <v>0.05628408178588799</v>
       </c>
       <c r="P6">
-        <v>0.05325343851699126</v>
+        <v>0.05416506452797712</v>
       </c>
       <c r="Q6">
-        <v>0.05144124725266053</v>
+        <v>0.05244406195773442</v>
       </c>
       <c r="R6">
-        <v>0.04993004140583079</v>
+        <v>0.05102802707906351</v>
       </c>
       <c r="S6">
-        <v>0.0486513092633339</v>
+        <v>0.04984821683918843</v>
       </c>
       <c r="T6">
-        <v>0.04755383890829909</v>
+        <v>0.04885316066531737</v>
       </c>
       <c r="U6">
-        <v>0.04659892717026833</v>
+        <v>0.04800388054092605</v>
       </c>
       <c r="V6">
-        <v>0.04575705216781496</v>
+        <v>0.04727057237345825</v>
       </c>
       <c r="W6">
-        <v>0.04500551820510073</v>
+        <v>0.04663025779444601</v>
       </c>
       <c r="X6">
-        <v>0.04432676059771656</v>
+        <v>0.04606509427230059</v>
       </c>
       <c r="Y6">
-        <v>0.04370710729461689</v>
+        <v>0.04556114066436523</v>
       </c>
       <c r="Z6">
-        <v>0.04313586244513212</v>
+        <v>0.04510744358574069</v>
       </c>
       <c r="AA6">
-        <v>0.04260462061403943</v>
+        <v>0.04469535350091325</v>
       </c>
       <c r="AB6">
-        <v>0.04210674868235854</v>
+        <v>0.04431800775550684</v>
       </c>
       <c r="AC6">
-        <v>0.04163699125682934</v>
+        <v>0.04396993652815401</v>
       </c>
       <c r="AD6">
-        <v>0.04119116809326587</v>
+        <v>0.0436467603427498</v>
       </c>
       <c r="AE6">
-        <v>0.04076594075093645</v>
+        <v>0.04334495647233683</v>
       </c>
       <c r="AF6">
-        <v>0.04035863177935552</v>
+        <v>0.04306167763058413</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.8942357844094723</v>
       </c>
       <c r="D7">
-        <v>0.8205551657331445</v>
+        <v>0.8229617338256813</v>
       </c>
       <c r="E7">
-        <v>0.7407199156720987</v>
+        <v>0.7471600347824903</v>
       </c>
       <c r="F7">
-        <v>0.6602626876607214</v>
+        <v>0.6716236552850987</v>
       </c>
       <c r="G7">
-        <v>0.5828998257998673</v>
+        <v>0.5994631156480005</v>
       </c>
       <c r="H7">
-        <v>0.5108825477466793</v>
+        <v>0.5324860770387798</v>
       </c>
       <c r="I7">
-        <v>0.4453729433600758</v>
+        <v>0.471563730676661</v>
       </c>
       <c r="J7">
-        <v>0.3867764252748683</v>
+        <v>0.4169363366593423</v>
       </c>
       <c r="K7">
-        <v>0.3350063869804075</v>
+        <v>0.3684466048224928</v>
       </c>
       <c r="L7">
-        <v>0.2896805003451825</v>
+        <v>0.3257071562546017</v>
       </c>
       <c r="M7">
-        <v>0.2502584897771104</v>
+        <v>0.2882146943405174</v>
       </c>
       <c r="N7">
-        <v>0.2161341589023818</v>
+        <v>0.2554241753896807</v>
       </c>
       <c r="O7">
-        <v>0.1866937601354972</v>
+        <v>0.226794483181675</v>
       </c>
       <c r="P7">
-        <v>0.1613507150326243</v>
+        <v>0.2018146285226037</v>
       </c>
       <c r="Q7">
-        <v>0.1395643578000265</v>
+        <v>0.1800171257311295</v>
       </c>
       <c r="R7">
-        <v>0.1208482892025754</v>
+        <v>0.1609832425326284</v>
       </c>
       <c r="S7">
-        <v>0.1047722558955973</v>
+        <v>0.144343328224087</v>
       </c>
       <c r="T7">
-        <v>0.0909602119941381</v>
+        <v>0.1297743431616173</v>
       </c>
       <c r="U7">
-        <v>0.0790863130736613</v>
+        <v>0.1169959557433331</v>
       </c>
       <c r="V7">
-        <v>0.06886996030916201</v>
+        <v>0.1057660581738982</v>
       </c>
       <c r="W7">
-        <v>0.06007058274309813</v>
+        <v>0.09587621035161491</v>
       </c>
       <c r="X7">
-        <v>0.05248256059733379</v>
+        <v>0.08714729924545027</v>
       </c>
       <c r="Y7">
-        <v>0.04593050787853351</v>
+        <v>0.07942556047307534</v>
       </c>
       <c r="Z7">
-        <v>0.04026501604404245</v>
+        <v>0.07257902217796208</v>
       </c>
       <c r="AA7">
-        <v>0.03535888942004375</v>
+        <v>0.06649437995743804</v>
       </c>
       <c r="AB7">
-        <v>0.03110386166241383</v>
+        <v>0.061074282834212</v>
       </c>
       <c r="AC7">
-        <v>0.02740776015394494</v>
+        <v>0.05623499566566152</v>
       </c>
       <c r="AD7">
-        <v>0.02419207471979314</v>
+        <v>0.05190439743193961</v>
       </c>
       <c r="AE7">
-        <v>0.02138988373700013</v>
+        <v>0.04802027397758434</v>
       </c>
       <c r="AF7">
-        <v>0.01894409158672935</v>
+        <v>0.04452886574390092</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.4920265379592854</v>
       </c>
       <c r="D8">
-        <v>0.3929630519525097</v>
+        <v>0.3938355732564192</v>
       </c>
       <c r="E8">
-        <v>0.3200380130797689</v>
+        <v>0.3221431145660948</v>
       </c>
       <c r="F8">
-        <v>0.2648471526209192</v>
+        <v>0.2682912941183573</v>
       </c>
       <c r="G8">
-        <v>0.2220734159878189</v>
+        <v>0.2268361364219853</v>
       </c>
       <c r="H8">
-        <v>0.1882409594898075</v>
+        <v>0.1942390144239418</v>
       </c>
       <c r="I8">
-        <v>0.161010012218786</v>
+        <v>0.168130827114987</v>
       </c>
       <c r="J8">
-        <v>0.1387633233071467</v>
+        <v>0.1468828922798066</v>
       </c>
       <c r="K8">
-        <v>0.1203557917087612</v>
+        <v>0.129348445284492</v>
       </c>
       <c r="L8">
-        <v>0.1049585256277163</v>
+        <v>0.1147023163300406</v>
       </c>
       <c r="M8">
-        <v>0.09195921029733926</v>
+        <v>0.1023388603652735</v>
       </c>
       <c r="N8">
-        <v>0.08089696994420142</v>
+        <v>0.09180541680353062</v>
       </c>
       <c r="O8">
-        <v>0.07141887999352448</v>
+        <v>0.08275798731884024</v>
       </c>
       <c r="P8">
-        <v>0.0632503692950903</v>
+        <v>0.07493112568434872</v>
       </c>
       <c r="Q8">
-        <v>0.05617471275289761</v>
+        <v>0.06811710805356315</v>
       </c>
       <c r="R8">
-        <v>0.0500185822774545</v>
+        <v>0.06215127891008949</v>
       </c>
       <c r="S8">
-        <v>0.04464170341913967</v>
+        <v>0.0569015786672049</v>
       </c>
       <c r="T8">
-        <v>0.03992933801211035</v>
+        <v>0.05226094866166584</v>
       </c>
       <c r="U8">
-        <v>0.03578674067886894</v>
+        <v>0.04814174599132181</v>
       </c>
       <c r="V8">
-        <v>0.03213501332335519</v>
+        <v>0.04447158209732169</v>
       </c>
       <c r="W8">
-        <v>0.02890796308453192</v>
+        <v>0.04119018337980034</v>
       </c>
       <c r="X8">
-        <v>0.02604968996211219</v>
+        <v>0.03824699477624394</v>
       </c>
       <c r="Y8">
-        <v>0.02351271177575241</v>
+        <v>0.03559932995445617</v>
       </c>
       <c r="Z8">
-        <v>0.02125648973630457</v>
+        <v>0.03321092830356126</v>
       </c>
       <c r="AA8">
-        <v>0.01924625632104164</v>
+        <v>0.03105081801507636</v>
       </c>
       <c r="AB8">
-        <v>0.01745207396455474</v>
+        <v>0.02909241191548667</v>
       </c>
       <c r="AC8">
-        <v>0.01584807199829058</v>
+        <v>0.02731278207658294</v>
       </c>
       <c r="AD8">
-        <v>0.01441182275664171</v>
+        <v>0.02569207307513987</v>
       </c>
       <c r="AE8">
-        <v>0.01312382747448862</v>
+        <v>0.02421302377245667</v>
       </c>
       <c r="AF8">
-        <v>0.0119670896582024</v>
+        <v>0.02286057477576121</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1205,91 +1205,91 @@
         <v>0.3533422012297993</v>
       </c>
       <c r="D9">
-        <v>0.2712889102169848</v>
+        <v>0.2713695267761781</v>
       </c>
       <c r="E9">
-        <v>0.2188478169837679</v>
+        <v>0.2190401106924383</v>
       </c>
       <c r="F9">
-        <v>0.1836758342755178</v>
+        <v>0.1839940268376544</v>
       </c>
       <c r="G9">
-        <v>0.1591262908308265</v>
+        <v>0.1595792791215287</v>
       </c>
       <c r="H9">
-        <v>0.1414086845058554</v>
+        <v>0.1420041289696879</v>
       </c>
       <c r="I9">
-        <v>0.128252385826328</v>
+        <v>0.1289980713480785</v>
       </c>
       <c r="J9">
-        <v>0.1182384090264538</v>
+        <v>0.1191425797098051</v>
       </c>
       <c r="K9">
-        <v>0.1104470198972606</v>
+        <v>0.1115183337126726</v>
       </c>
       <c r="L9">
-        <v>0.1042630185503268</v>
+        <v>0.1055103755169642</v>
       </c>
       <c r="M9">
-        <v>0.09926360432265234</v>
+        <v>0.1006959494581249</v>
       </c>
       <c r="N9">
-        <v>0.09515137066530832</v>
+        <v>0.09677751148992664</v>
       </c>
       <c r="O9">
-        <v>0.09171291665962268</v>
+        <v>0.09354136950906713</v>
       </c>
       <c r="P9">
-        <v>0.08879250407475693</v>
+        <v>0.09083137261833867</v>
       </c>
       <c r="Q9">
-        <v>0.08627482925438305</v>
+        <v>0.08853171395847037</v>
       </c>
       <c r="R9">
-        <v>0.08407347556722203</v>
+        <v>0.08655541090095439</v>
       </c>
       <c r="S9">
-        <v>0.08212299959158162</v>
+        <v>0.08483641507139648</v>
       </c>
       <c r="T9">
-        <v>0.08037339835065585</v>
+        <v>0.08332409941609185</v>
       </c>
       <c r="U9">
-        <v>0.07878617186068824</v>
+        <v>0.0819793367687356</v>
       </c>
       <c r="V9">
-        <v>0.0773314766887547</v>
+        <v>0.08077166595959652</v>
       </c>
       <c r="W9">
-        <v>0.0759860397872041</v>
+        <v>0.07967721514960487</v>
       </c>
       <c r="X9">
-        <v>0.07473161125415849</v>
+        <v>0.07867716147575803</v>
       </c>
       <c r="Y9">
-        <v>0.07355380502504805</v>
+        <v>0.07775657644110237</v>
       </c>
       <c r="Z9">
-        <v>0.07244122264414775</v>
+        <v>0.07690355259878054</v>
       </c>
       <c r="AA9">
-        <v>0.07138478609880665</v>
+        <v>0.07610853787438021</v>
       </c>
       <c r="AB9">
-        <v>0.07037722667231086</v>
+        <v>0.07536382479955143</v>
       </c>
       <c r="AC9">
-        <v>0.06941269128058561</v>
+        <v>0.07466315639317397</v>
       </c>
       <c r="AD9">
-        <v>0.06848643795636421</v>
+        <v>0.07400142058025473</v>
       </c>
       <c r="AE9">
-        <v>0.06759459941967361</v>
+        <v>0.07337441227271281</v>
       </c>
       <c r="AF9">
-        <v>0.06673399893435028</v>
+        <v>0.07277864746017326</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.142341997113088</v>
       </c>
       <c r="C10">
-        <v>0.8084302649704131</v>
+        <v>0.8084302649704129</v>
       </c>
       <c r="D10">
-        <v>0.6167258639685536</v>
+        <v>0.6164117022594346</v>
       </c>
       <c r="E10">
-        <v>0.4995607264224204</v>
+        <v>0.4988088656532514</v>
       </c>
       <c r="F10">
-        <v>0.4245082423514775</v>
+        <v>0.4232500476327447</v>
       </c>
       <c r="G10">
-        <v>0.3747920086201891</v>
+        <v>0.3729693564050404</v>
       </c>
       <c r="H10">
-        <v>0.3411497675902032</v>
+        <v>0.3387002661792005</v>
       </c>
       <c r="I10">
-        <v>0.3181751426923509</v>
+        <v>0.3150275106966017</v>
       </c>
       <c r="J10">
-        <v>0.3025568433994789</v>
+        <v>0.2986299072331968</v>
       </c>
       <c r="K10">
-        <v>0.2921798571227562</v>
+        <v>0.2873828602049375</v>
       </c>
       <c r="L10">
-        <v>0.2856426026482339</v>
+        <v>0.2798759827001898</v>
       </c>
       <c r="M10">
-        <v>0.2819856781808299</v>
+        <v>0.2751419955241851</v>
       </c>
       <c r="N10">
-        <v>0.2805333431549202</v>
+        <v>0.2724982371339469</v>
       </c>
       <c r="O10">
-        <v>0.2807975650211566</v>
+        <v>0.2714506883863959</v>
       </c>
       <c r="P10">
-        <v>0.2824180683972957</v>
+        <v>0.2716339771759001</v>
       </c>
       <c r="Q10">
-        <v>0.2851237819799062</v>
+        <v>0.2727727694721204</v>
       </c>
       <c r="R10">
-        <v>0.2887073787093144</v>
+        <v>0.2746562474186412</v>
       </c>
       <c r="S10">
-        <v>0.2930080428301506</v>
+        <v>0.2771208112248352</v>
       </c>
       <c r="T10">
-        <v>0.2978995340198975</v>
+        <v>0.2800380773374005</v>
       </c>
       <c r="U10">
-        <v>0.3032817408980115</v>
+        <v>0.2833063671054327</v>
       </c>
       <c r="V10">
-        <v>0.3090745832689337</v>
+        <v>0.2868445468377742</v>
       </c>
       <c r="W10">
-        <v>0.3152135281998645</v>
+        <v>0.2905874855306267</v>
       </c>
       <c r="X10">
-        <v>0.3216462370553444</v>
+        <v>0.2944826481934784</v>
       </c>
       <c r="Y10">
-        <v>0.3283300201786017</v>
+        <v>0.2984875019223309</v>
       </c>
       <c r="Z10">
-        <v>0.3352298787598039</v>
+        <v>0.3025675144189441</v>
       </c>
       <c r="AA10">
-        <v>0.3423169808543522</v>
+        <v>0.3066945918362177</v>
       </c>
       <c r="AB10">
-        <v>0.3495674634407262</v>
+        <v>0.3108458475764068</v>
       </c>
       <c r="AC10">
-        <v>0.3569614828274105</v>
+        <v>0.3150026239671204</v>
       </c>
       <c r="AD10">
-        <v>0.3644824566474617</v>
+        <v>0.3191497095975213</v>
       </c>
       <c r="AE10">
-        <v>0.3721164553105614</v>
+        <v>0.3232747096975663</v>
       </c>
       <c r="AF10">
-        <v>0.3798517111761138</v>
+        <v>0.3273675373369137</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.448273530049218</v>
+        <v>0.4482735300492183</v>
       </c>
       <c r="C11">
-        <v>0.4042959484233922</v>
+        <v>0.4042959484233926</v>
       </c>
       <c r="D11">
-        <v>0.3719198676822892</v>
+        <v>0.371947497145565</v>
       </c>
       <c r="E11">
-        <v>0.3475998458642386</v>
+        <v>0.3476761834863548</v>
       </c>
       <c r="F11">
-        <v>0.3290175881611395</v>
+        <v>0.3291600027326001</v>
       </c>
       <c r="G11">
-        <v>0.3146090654168309</v>
+        <v>0.3148327481329353</v>
       </c>
       <c r="H11">
-        <v>0.3032902485393507</v>
+        <v>0.3036090484971928</v>
       </c>
       <c r="I11">
-        <v>0.2942921657975596</v>
+        <v>0.2947190435263365</v>
       </c>
       <c r="J11">
-        <v>0.2870584134934761</v>
+        <v>0.2876056811226243</v>
       </c>
       <c r="K11">
-        <v>0.281179558186147</v>
+        <v>0.281858999662085</v>
       </c>
       <c r="L11">
-        <v>0.2763500026696967</v>
+        <v>0.2771729272002239</v>
       </c>
       <c r="M11">
-        <v>0.2723389160829534</v>
+        <v>0.273316175661737</v>
       </c>
       <c r="N11">
-        <v>0.268970198283806</v>
+        <v>0.2701121873473719</v>
       </c>
       <c r="O11">
-        <v>0.26610838754201</v>
+        <v>0.2674250352705007</v>
       </c>
       <c r="P11">
-        <v>0.2636485659504975</v>
+        <v>0.2651493271891521</v>
       </c>
       <c r="Q11">
-        <v>0.2615090100342132</v>
+        <v>0.2632028580541308</v>
       </c>
       <c r="R11">
-        <v>0.2596257629087298</v>
+        <v>0.2615211855459364</v>
       </c>
       <c r="S11">
-        <v>0.2579485753402038</v>
+        <v>0.2600535750425477</v>
       </c>
       <c r="T11">
-        <v>0.256437837733153</v>
+        <v>0.2587599354572361</v>
       </c>
       <c r="U11">
-        <v>0.2550622398222111</v>
+        <v>0.2576084824026564</v>
       </c>
       <c r="V11">
-        <v>0.2537969716214177</v>
+        <v>0.2565739420832988</v>
       </c>
       <c r="W11">
-        <v>0.2526223314730199</v>
+        <v>0.2556361617109127</v>
       </c>
       <c r="X11">
-        <v>0.251522643260855</v>
+        <v>0.2547790285225555</v>
       </c>
       <c r="Y11">
-        <v>0.250485410359828</v>
+        <v>0.253989625021724</v>
       </c>
       <c r="Z11">
-        <v>0.2495006521325958</v>
+        <v>0.2532575663191298</v>
       </c>
       <c r="AA11">
-        <v>0.2485603820167895</v>
+        <v>0.252574478687103</v>
       </c>
       <c r="AB11">
-        <v>0.2476581959734798</v>
+        <v>0.2519335881673408</v>
       </c>
       <c r="AC11">
-        <v>0.2467889473045454</v>
+        <v>0.2513293953031399</v>
       </c>
       <c r="AD11">
-        <v>0.2459484892884175</v>
+        <v>0.2507574175016274</v>
       </c>
       <c r="AE11">
-        <v>0.2451334712141014</v>
+        <v>0.2502139846538425</v>
       </c>
       <c r="AF11">
-        <v>0.2443411765539155</v>
+        <v>0.2496960767930987</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1493,97 +1493,97 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4920378988480286</v>
+        <v>0.4920378988480285</v>
       </c>
       <c r="C12">
-        <v>0.4047685500301601</v>
+        <v>0.4047685500301602</v>
       </c>
       <c r="D12">
-        <v>0.3440611059347752</v>
+        <v>0.3442477305872049</v>
       </c>
       <c r="E12">
-        <v>0.3002473760486272</v>
+        <v>0.3007290436623568</v>
       </c>
       <c r="F12">
-        <v>0.2676039428317326</v>
+        <v>0.2684506412138694</v>
       </c>
       <c r="G12">
-        <v>0.2425932853993166</v>
+        <v>0.24385517525775</v>
       </c>
       <c r="H12">
-        <v>0.2229462490555417</v>
+        <v>0.2246626033210281</v>
       </c>
       <c r="I12">
-        <v>0.2071599946575766</v>
+        <v>0.2093635514765816</v>
       </c>
       <c r="J12">
-        <v>0.1942114334061431</v>
+        <v>0.1969305132468907</v>
       </c>
       <c r="K12">
-        <v>0.183387386219383</v>
+        <v>0.1866469058629469</v>
       </c>
       <c r="L12">
-        <v>0.1741804730239344</v>
+        <v>0.1780024199623214</v>
       </c>
       <c r="M12">
-        <v>0.166223331071063</v>
+        <v>0.1706269845623681</v>
       </c>
       <c r="N12">
-        <v>0.1592459023569331</v>
+        <v>0.1642479474218011</v>
       </c>
       <c r="O12">
-        <v>0.1530470118183336</v>
+        <v>0.1586616197295848</v>
       </c>
       <c r="P12">
-        <v>0.147475035081933</v>
+        <v>0.1537139453526783</v>
       </c>
       <c r="Q12">
-        <v>0.1424144891623613</v>
+        <v>0.1492871074793954</v>
       </c>
       <c r="R12">
-        <v>0.1377765691557736</v>
+        <v>0.1452900848908066</v>
       </c>
       <c r="S12">
-        <v>0.1334923675072868</v>
+        <v>0.1416518890158314</v>
       </c>
       <c r="T12">
-        <v>0.1295079506516531</v>
+        <v>0.1383166541581969</v>
       </c>
       <c r="U12">
-        <v>0.1257807430070074</v>
+        <v>0.1352400301335693</v>
       </c>
       <c r="V12">
-        <v>0.1222768447582912</v>
+        <v>0.1323865039069321</v>
       </c>
       <c r="W12">
-        <v>0.1189690252822983</v>
+        <v>0.1297273926775525</v>
       </c>
       <c r="X12">
-        <v>0.1158352109834284</v>
+        <v>0.1272393279533481</v>
       </c>
       <c r="Y12">
-        <v>0.1128573384816044</v>
+        <v>0.1249031023548771</v>
       </c>
       <c r="Z12">
-        <v>0.1100204800698498</v>
+        <v>0.1227027868092293</v>
       </c>
       <c r="AA12">
-        <v>0.1073121735477741</v>
+        <v>0.1206250508871874</v>
       </c>
       <c r="AB12">
-        <v>0.104721906420797</v>
+        <v>0.1186586368109266</v>
       </c>
       <c r="AC12">
-        <v>0.102240717312911</v>
+        <v>0.1167939504087186</v>
       </c>
       <c r="AD12">
-        <v>0.09986088678992275</v>
+        <v>0.1150227415425562</v>
       </c>
       <c r="AE12">
-        <v>0.09757569665569692</v>
+        <v>0.1133378533134229</v>
       </c>
       <c r="AF12">
-        <v>0.0953792418695279</v>
+        <v>0.1117330243618755</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1591,97 +1591,97 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5528235542392858</v>
+        <v>0.5528235542392856</v>
       </c>
       <c r="C13">
-        <v>0.4784334037231907</v>
+        <v>0.4784334037231905</v>
       </c>
       <c r="D13">
-        <v>0.412510544845701</v>
+        <v>0.4136703161714259</v>
       </c>
       <c r="E13">
-        <v>0.3547724943653106</v>
+        <v>0.3577290446240821</v>
       </c>
       <c r="F13">
-        <v>0.304636230230939</v>
+        <v>0.3096596543499889</v>
       </c>
       <c r="G13">
-        <v>0.2613722443828118</v>
+        <v>0.2684881932278774</v>
       </c>
       <c r="H13">
-        <v>0.2242046666708871</v>
+        <v>0.2332859532806485</v>
       </c>
       <c r="I13">
-        <v>0.1923725942338443</v>
+        <v>0.2032049684119693</v>
       </c>
       <c r="J13">
-        <v>0.1651647590632716</v>
+        <v>0.1774923636616927</v>
       </c>
       <c r="K13">
-        <v>0.1419366092153298</v>
+        <v>0.1554921450857036</v>
       </c>
       <c r="L13">
-        <v>0.1221162719001297</v>
+        <v>0.1366400483133768</v>
       </c>
       <c r="M13">
-        <v>0.105203837664173</v>
+        <v>0.1204549853567514</v>
       </c>
       <c r="N13">
-        <v>0.09076691364226983</v>
+        <v>0.1065292314172652</v>
       </c>
       <c r="O13">
-        <v>0.07843434118357411</v>
+        <v>0.09451858343390872</v>
       </c>
       <c r="P13">
-        <v>0.06788925301706535</v>
+        <v>0.08413314727024551</v>
       </c>
       <c r="Q13">
-        <v>0.05886216553623924</v>
+        <v>0.07512905863283117</v>
       </c>
       <c r="R13">
-        <v>0.05112449046550698</v>
+        <v>0.06730123555895288</v>
       </c>
       <c r="S13">
-        <v>0.04448265352080872</v>
+        <v>0.06047714447296323</v>
       </c>
       <c r="T13">
-        <v>0.03877288745401881</v>
+        <v>0.05451150233627912</v>
       </c>
       <c r="U13">
-        <v>0.03385669654608592</v>
+        <v>0.04928181167974892</v>
       </c>
       <c r="V13">
-        <v>0.02961695118107506</v>
+        <v>0.04468461899259708</v>
       </c>
       <c r="W13">
-        <v>0.02595455259351726</v>
+        <v>0.04063239117661799</v>
       </c>
       <c r="X13">
-        <v>0.02278560137311734</v>
+        <v>0.0370509141867129</v>
       </c>
       <c r="Y13">
-        <v>0.02003900376983378</v>
+        <v>0.03387712941433021</v>
       </c>
       <c r="Z13">
-        <v>0.01765445406731373</v>
+        <v>0.03105733505279088</v>
       </c>
       <c r="AA13">
-        <v>0.01558073730548941</v>
+        <v>0.02854569067840072</v>
       </c>
       <c r="AB13">
-        <v>0.01377430324783846</v>
+        <v>0.02630297315585064</v>
       </c>
       <c r="AC13">
-        <v>0.01219806902487866</v>
+        <v>0.0242955405873336</v>
       </c>
       <c r="AD13">
-        <v>0.01082041397936571</v>
+        <v>0.02249446838782318</v>
       </c>
       <c r="AE13">
-        <v>0.009614335721261398</v>
+        <v>0.02087482778038438</v>
       </c>
       <c r="AF13">
-        <v>0.008556741218376051</v>
+        <v>0.01941508219594446</v>
       </c>
     </row>
   </sheetData>
